--- a/simulations/cleaned_inclusion_exclusion/Nelson_2002 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Nelson_2002 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>58</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>42.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>147</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>57.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>81.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>102</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>90</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>160</v>
       </c>
       <c r="C11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D11">
-        <v>159</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D13">
-        <v>126</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>74</v>
       </c>
       <c r="C14">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>85.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>185</v>
       </c>
       <c r="C16">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D16">
-        <v>188.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>136</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>132</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>68.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>137</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>30.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>93</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,10 +691,10 @@
         <v>66</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D22">
-        <v>74</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>128.5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>121</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>66.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>89</v>
       </c>
       <c r="C26">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>70</v>
       </c>
       <c r="C27">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>92.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -775,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -789,10 +789,10 @@
         <v>150</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>83.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -803,10 +803,10 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>46.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -817,10 +817,10 @@
         <v>93</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D31">
-        <v>81.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -845,10 +845,10 @@
         <v>56</v>
       </c>
       <c r="C33">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -859,10 +859,10 @@
         <v>49</v>
       </c>
       <c r="C34">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -873,10 +873,10 @@
         <v>209</v>
       </c>
       <c r="C35">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D35">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -887,10 +887,10 @@
         <v>263</v>
       </c>
       <c r="C36">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D36">
-        <v>264</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -901,10 +901,10 @@
         <v>135</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -915,10 +915,10 @@
         <v>109</v>
       </c>
       <c r="C38">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D38">
-        <v>122.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -929,10 +929,10 @@
         <v>112</v>
       </c>
       <c r="C39">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D39">
-        <v>127.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -943,10 +943,10 @@
         <v>62</v>
       </c>
       <c r="C40">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D40">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -957,10 +957,10 @@
         <v>26</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>37.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -971,10 +971,10 @@
         <v>140</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>75.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -985,10 +985,10 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43">
-        <v>57.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -999,10 +999,10 @@
         <v>97</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>53.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>236</v>
       </c>
       <c r="C46">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D46">
-        <v>239.5</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>139</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>78.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1055,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>36.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1069,10 +1069,10 @@
         <v>202</v>
       </c>
       <c r="C49">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D49">
-        <v>193</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1083,10 +1083,10 @@
         <v>219</v>
       </c>
       <c r="C50">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D50">
-        <v>220</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1111,10 +1111,10 @@
         <v>114</v>
       </c>
       <c r="C52">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="D52">
-        <v>143.5</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>146</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1139,10 +1139,10 @@
         <v>152</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>85.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1153,10 +1153,10 @@
         <v>44</v>
       </c>
       <c r="C55">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>85.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1167,10 +1167,10 @@
         <v>32</v>
       </c>
       <c r="C56">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>149</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>82.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1195,10 +1195,10 @@
         <v>53</v>
       </c>
       <c r="C58">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1209,10 +1209,10 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1237,10 +1237,10 @@
         <v>54</v>
       </c>
       <c r="C61">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D61">
-        <v>71.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>38</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>53.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>275</v>
       </c>
       <c r="C63">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D63">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>15</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>38.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>60</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +1307,10 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D66">
-        <v>39.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>41</v>
       </c>
       <c r="C67">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D67">
-        <v>60.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>161</v>
       </c>
       <c r="C68">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D68">
-        <v>160</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,10 +1349,10 @@
         <v>23</v>
       </c>
       <c r="C69">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D69">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1363,10 +1363,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D70">
-        <v>93.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>43</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D71">
-        <v>57.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>96</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D72">
-        <v>67.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +1419,10 @@
         <v>178</v>
       </c>
       <c r="C74">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D74">
-        <v>171.5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>95</v>
       </c>
       <c r="C75">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D75">
-        <v>95</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,10 +1447,10 @@
         <v>52</v>
       </c>
       <c r="C76">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>71</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>29</v>
       </c>
       <c r="C77">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D77">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +1475,10 @@
         <v>57</v>
       </c>
       <c r="C78">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D78">
-        <v>77.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>175</v>
       </c>
       <c r="C79">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D79">
-        <v>181.5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D80">
-        <v>96</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D81">
-        <v>37</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,7 +1531,7 @@
         <v>86.17721518987342</v>
       </c>
       <c r="C82">
-        <v>87.1125</v>
+        <v>87.3</v>
       </c>
     </row>
   </sheetData>
